--- a/Task1(v4)/results.xlsx
+++ b/Task1(v4)/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{B38044DC-E526-4749-995C-5A23170718C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{D379EB45-A4C8-437A-9ACD-90FC6141511E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B0DC7E-BC09-4456-9A83-5699047CD400}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658ED75B-4196-464B-BC12-9D927689F5FB}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Task1(v4)/results.xlsx
+++ b/Task1(v4)/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{D379EB45-A4C8-437A-9ACD-90FC6141511E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{17F4E34B-DD0F-43C6-A5FC-060C26502960}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658ED75B-4196-464B-BC12-9D927689F5FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE34022-A488-41EC-AEA9-CDCF07B638E9}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Task1(v4)/results.xlsx
+++ b/Task1(v4)/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{17F4E34B-DD0F-43C6-A5FC-060C26502960}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{EDC6E18C-1C07-472B-9700-ABA95ACEA617}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE34022-A488-41EC-AEA9-CDCF07B638E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EE39FC-0045-4CA4-8CCF-8088743272E7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Task1(v4)/results.xlsx
+++ b/Task1(v4)/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{EDC6E18C-1C07-472B-9700-ABA95ACEA617}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{19D750F1-A1A1-4252-819A-A28750392AD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>dokpaieska.showdoc_l?p_id=1286301&amp;p_org=18&amp;p_fix=y</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Tipas</t>
+  </si>
+  <si>
+    <t>Gauta derinimui</t>
+  </si>
+  <si>
+    <t>Išvadas teikti iki</t>
   </si>
   <si>
     <t>18-1723</t>
@@ -35,10 +47,13 @@
     <t>Nutarimo projektas</t>
   </si>
   <si>
-    <t>dokpaieska.showdoc_l?p_id=1286198&amp;p_org=18&amp;p_fix=y</t>
+    <t>Neišsiųsta</t>
   </si>
   <si>
     <t>18-1688</t>
+  </si>
+  <si>
+    <t>Išsiųsta</t>
   </si>
 </sst>
 </file>
@@ -390,8 +405,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EE39FC-0045-4CA4-8CCF-8088743272E7}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB2F37D-E422-42DF-BDE8-FF9B6D37BE18}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,40 +416,60 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>43144</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>43144</v>
-      </c>
-      <c r="F1" s="1">
-        <v>43153</v>
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="1">
         <v>43144</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43144</v>
       </c>
       <c r="E2" s="1">
+        <v>43153</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>43144</v>
       </c>
-      <c r="F2" s="1">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43144</v>
+      </c>
+      <c r="E3" s="1">
         <v>43153</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Task1(v4)/results.xlsx
+++ b/Task1(v4)/results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Data</t>
   </si>
@@ -41,19 +41,28 @@
     <t>Išvadas teikti iki</t>
   </si>
   <si>
+    <t>Nutarimo projektas</t>
+  </si>
+  <si>
+    <t>Neišsiųsta</t>
+  </si>
+  <si>
+    <t>18-1688</t>
+  </si>
+  <si>
+    <t>Statusas</t>
+  </si>
+  <si>
+    <t>18-1725</t>
+  </si>
+  <si>
+    <t>18-1722</t>
+  </si>
+  <si>
+    <t>18-1721</t>
+  </si>
+  <si>
     <t>18-1723</t>
-  </si>
-  <si>
-    <t>Nutarimo projektas</t>
-  </si>
-  <si>
-    <t>Neišsiųsta</t>
-  </si>
-  <si>
-    <t>18-1688</t>
-  </si>
-  <si>
-    <t>Išsiųsta</t>
   </si>
 </sst>
 </file>
@@ -406,9 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB2F37D-E422-42DF-BDE8-FF9B6D37BE18}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -429,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -437,10 +448,10 @@
         <v>43144</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>43144</v>
@@ -449,7 +460,7 @@
         <v>43153</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -457,10 +468,10 @@
         <v>43144</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>43144</v>
@@ -469,7 +480,92 @@
         <v>43153</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43144</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43153</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43144</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43153</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43144</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43153</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Task1(v4)/results.xlsx
+++ b/Task1(v4)/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{19D750F1-A1A1-4252-819A-A28750392AD5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8865" xr2:uid="{2A47C979-3A0D-4C44-AACB-1E2DEEC4B561}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Data</t>
   </si>
@@ -41,28 +41,22 @@
     <t>Išvadas teikti iki</t>
   </si>
   <si>
+    <t>Statusas</t>
+  </si>
+  <si>
+    <t>18-1926</t>
+  </si>
+  <si>
     <t>Nutarimo projektas</t>
   </si>
   <si>
     <t>Neišsiųsta</t>
   </si>
   <si>
+    <t>18-1723</t>
+  </si>
+  <si>
     <t>18-1688</t>
-  </si>
-  <si>
-    <t>Statusas</t>
-  </si>
-  <si>
-    <t>18-1725</t>
-  </si>
-  <si>
-    <t>18-1722</t>
-  </si>
-  <si>
-    <t>18-1721</t>
-  </si>
-  <si>
-    <t>18-1723</t>
   </si>
 </sst>
 </file>
@@ -414,12 +408,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB2F37D-E422-42DF-BDE8-FF9B6D37BE18}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1D4F20-AB3C-41D3-A2FB-FE8A21917DA4}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -440,27 +432,27 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43144</v>
+        <v>43151</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>43144</v>
+        <v>43151</v>
       </c>
       <c r="E2" s="1">
-        <v>43153</v>
+        <v>43159</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -468,10 +460,10 @@
         <v>43144</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>43144</v>
@@ -480,92 +472,27 @@
         <v>43153</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A4" s="1">
         <v>43144</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
         <v>43144</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E4" s="1">
         <v>43153</v>
       </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43144</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43153</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43144</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43144</v>
-      </c>
-      <c r="E11" s="1">
-        <v>43153</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Task1(v4)/results.xlsx
+++ b/Task1(v4)/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8865" xr2:uid="{2A47C979-3A0D-4C44-AACB-1E2DEEC4B561}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8865" xr2:uid="{0087B075-BAB7-41F7-BBBC-5BDF89E73D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Data</t>
   </si>
@@ -50,13 +50,7 @@
     <t>Nutarimo projektas</t>
   </si>
   <si>
-    <t>Neišsiųsta</t>
-  </si>
-  <si>
-    <t>18-1723</t>
-  </si>
-  <si>
-    <t>18-1688</t>
+    <t>Išsiųsta</t>
   </si>
 </sst>
 </file>
@@ -408,8 +402,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1D4F20-AB3C-41D3-A2FB-FE8A21917DA4}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4AE915-E314-4170-86A0-BFE05EFD962B}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,46 +449,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43144</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43153</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43144</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43144</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43153</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Task1(v4)/results.xlsx
+++ b/Task1(v4)/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8865" xr2:uid="{0087B075-BAB7-41F7-BBBC-5BDF89E73D4C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8865" xr2:uid="{595ACACC-65C5-49BC-897B-0D90BB2A1337}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4AE915-E314-4170-86A0-BFE05EFD962B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A09058B-C359-4CDF-8070-3BDF05558BE1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Task1(v4)/results.xlsx
+++ b/Task1(v4)/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8865" xr2:uid="{595ACACC-65C5-49BC-897B-0D90BB2A1337}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{0949C40C-5EA2-45E5-A3B7-F6C5E97FBAED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Data</t>
   </si>
@@ -44,13 +44,16 @@
     <t>Statusas</t>
   </si>
   <si>
-    <t>18-1926</t>
+    <t>18-1723</t>
   </si>
   <si>
     <t>Nutarimo projektas</t>
   </si>
   <si>
     <t>Išsiųsta</t>
+  </si>
+  <si>
+    <t>18-1688</t>
   </si>
 </sst>
 </file>
@@ -402,8 +405,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A09058B-C359-4CDF-8070-3BDF05558BE1}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBA224C-E2C0-4FC0-B6A5-18F13987EED3}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,7 +434,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43151</v>
+        <v>43144</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -440,12 +443,32 @@
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>43151</v>
+        <v>43144</v>
       </c>
       <c r="E2" s="1">
-        <v>43159</v>
+        <v>43153</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43144</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43153</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Task1(v4)/results.xlsx
+++ b/Task1(v4)/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{0949C40C-5EA2-45E5-A3B7-F6C5E97FBAED}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8865" xr2:uid="{3C248EBD-FD55-458E-ABD8-719C237596C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Data</t>
   </si>
@@ -44,16 +44,13 @@
     <t>Statusas</t>
   </si>
   <si>
-    <t>18-1723</t>
+    <t>18-1926</t>
   </si>
   <si>
     <t>Nutarimo projektas</t>
   </si>
   <si>
-    <t>Išsiųsta</t>
-  </si>
-  <si>
-    <t>18-1688</t>
+    <t>Neišsiųsta</t>
   </si>
 </sst>
 </file>
@@ -405,8 +402,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBA224C-E2C0-4FC0-B6A5-18F13987EED3}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1081665D-462D-4D95-9F23-4D599E885885}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +431,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43144</v>
+        <v>43151</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -443,32 +440,12 @@
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>43144</v>
+        <v>43151</v>
       </c>
       <c r="E2" s="1">
-        <v>43153</v>
+        <v>43159</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43144</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43153</v>
-      </c>
-      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
